--- a/GrocceryAplication/src/test/resources/TestDataa.xlsx
+++ b/GrocceryAplication/src/test/resources/TestDataa.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="14730" windowHeight="2880"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUsersPage" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>admin</t>
   </si>
@@ -28,6 +29,9 @@
   </si>
   <si>
     <t>anntreesa123</t>
+  </si>
+  <si>
+    <t>anntreesa_binoy</t>
   </si>
 </sst>
 </file>
@@ -368,11 +372,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -392,7 +399,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -415,7 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
